--- a/biology/Écologie/Écorégion_d'Australie/Écorégion_d'Australie.xlsx
+++ b/biology/Écologie/Écorégion_d'Australie/Écorégion_d'Australie.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89cor%C3%A9gion_d%27Australie</t>
+          <t>Écorégion_d'Australie</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le World Wide Fund for Nature, qui définit une liste d'écorégions au niveau mondial, reconnaît 8 biomes types pour l'Australie, et 40 écorégions. Pour ce faire, le WWF s'appuie sur les travaux de l'Interim Biogeographic Regionalisation for Australia. Le WWF estime que plusieurs de ces écorégions comme celle de la forêt pluviale tropicale du Queensland sont parmi les plus représentatives ou les plus riches en biodiversité des habitats terrestres, marins, et d'eau douce et par conséquent à protéger avec le plus d'attention. À cette fin, le WWF les a inscrites sur le registre du Global 200.
 L'Australie est comprise dans l'écozone australasienne avec la Nouvelle-Zélande et la Nouvelle-Guinée.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89cor%C3%A9gion_d%27Australie</t>
+          <t>Écorégion_d'Australie</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Écorégion inscrite au global 200</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Eastern Australian temperate forests
 Arnhem Land tropical savanna
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89cor%C3%A9gion_d%27Australie</t>
+          <t>Écorégion_d'Australie</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +575,9 @@
           <t>Liste des écorégions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Forêt tropicale humide
 Forêts subtropicales de l'île Lord Howe
